--- a/task_2.xlsx
+++ b/task_2.xlsx
@@ -2,16 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Задание</t>
   </si>
@@ -19,52 +21,52 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>1. Посчитать значение "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>Value USD</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">"(т.е. пересчитать все расходы в доллары) для таблицы </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>Purchases</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> используя курс доллара из таблицы </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Currency Rates </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>одной универсальной формулой
 Необходимо использовать масштабируемое решение, которое сработает и в случае если валют будет не 3, а 50</t>
@@ -74,52 +76,52 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>2. Посчитать сумму значений "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>Value USD</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">" по категориям покупок для таблицы </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>Categories Costs</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> используя ранее посчитанные данные из таблицы </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Purchases </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>одной универсальной формулой</t>
     </r>
@@ -207,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -239,6 +241,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -362,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -399,6 +410,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="5" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -611,9 +625,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" activeCellId="0" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.0"/>
     <col customWidth="1" min="2" max="2" width="9.13"/>
@@ -640,22 +656,22 @@
       <c r="A3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
+    <row r="4" customHeight="1" ht="22">
       <c r="A4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
+    <row r="5" customHeight="1" ht="22">
       <c r="A5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
+    <row r="6" customHeight="1" ht="22">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="21.0" customHeight="1">
+    <row r="7" customHeight="1" ht="21">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -664,11 +680,11 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="21.0" customHeight="1">
+    <row r="8" customHeight="1" ht="21">
       <c r="A8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="21.0" customHeight="1">
+    <row r="9" customHeight="1" ht="21">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -686,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -694,8 +710,8 @@
         <v>5</v>
       </c>
       <c r="B13" s="15">
-        <f>1.09870045503623</f>
-        <v>1.098700455</v>
+        <f>1.0987004550362</f>
+        <v>1.09870045503623</v>
       </c>
     </row>
     <row r="14">
@@ -745,9 +761,9 @@
       <c r="D18" s="17">
         <v>43.885341415340505</v>
       </c>
-      <c r="E18" s="18">
-        <f t="shared" ref="E18:E29" si="1">D18 * VLOOKUP($C18,$A$12:$B$14,2,0)</f>
-        <v>2918.383981</v>
+      <c r="E18" s="20">
+        <f>D18 / VLOOKUP($C18,$A$12:$B$14,2,0)</f>
+        <v>0.6599279613495974</v>
       </c>
     </row>
     <row r="19">
@@ -763,9 +779,9 @@
       <c r="D19" s="17">
         <v>875.2406161611731</v>
       </c>
-      <c r="E19" s="18">
-        <f t="shared" si="1"/>
-        <v>58203.67602</v>
+      <c r="E19" s="20">
+        <f>D19 / VLOOKUP($C19,$A$12:$B$14,2,0)</f>
+        <v>13.161473441601274</v>
       </c>
     </row>
     <row r="20">
@@ -781,9 +797,9 @@
       <c r="D20" s="17">
         <v>60.40730163558419</v>
       </c>
-      <c r="E20" s="18">
-        <f t="shared" si="1"/>
-        <v>60.40730164</v>
+      <c r="E20" s="20">
+        <f>D20 / VLOOKUP($C20,$A$12:$B$14,2,0)</f>
+        <v>60.40730163558419</v>
       </c>
     </row>
     <row r="21">
@@ -799,9 +815,9 @@
       <c r="D21" s="17">
         <v>301.14824866863074</v>
       </c>
-      <c r="E21" s="18">
-        <f t="shared" si="1"/>
-        <v>20026.41877</v>
+      <c r="E21" s="20">
+        <f>D21 / VLOOKUP($C21,$A$12:$B$14,2,0)</f>
+        <v>4.528531473117836</v>
       </c>
     </row>
     <row r="22">
@@ -817,9 +833,9 @@
       <c r="D22" s="17">
         <v>620.060781590964</v>
       </c>
-      <c r="E22" s="18">
-        <f t="shared" si="1"/>
-        <v>41234.16599</v>
+      <c r="E22" s="20">
+        <f>D22 / VLOOKUP($C22,$A$12:$B$14,2,0)</f>
+        <v>9.324194236873932</v>
       </c>
     </row>
     <row r="23">
@@ -835,9 +851,9 @@
       <c r="D23" s="17">
         <v>78.48368062189937</v>
       </c>
-      <c r="E23" s="18">
-        <f t="shared" si="1"/>
-        <v>86.23005561</v>
+      <c r="E23" s="20">
+        <f>D23 / VLOOKUP($C23,$A$12:$B$14,2,0)</f>
+        <v>71.43319206080727</v>
       </c>
     </row>
     <row r="24">
@@ -853,9 +869,9 @@
       <c r="D24" s="17">
         <v>86.93874150764735</v>
       </c>
-      <c r="E24" s="18">
-        <f t="shared" si="1"/>
-        <v>86.93874151</v>
+      <c r="E24" s="20">
+        <f>D24 / VLOOKUP($C24,$A$12:$B$14,2,0)</f>
+        <v>86.93874150764735</v>
       </c>
     </row>
     <row r="25">
@@ -871,9 +887,9 @@
       <c r="D25" s="17">
         <v>17.61288091616492</v>
       </c>
-      <c r="E25" s="18">
-        <f t="shared" si="1"/>
-        <v>19.35128028</v>
+      <c r="E25" s="20">
+        <f>D25 / VLOOKUP($C25,$A$12:$B$14,2,0)</f>
+        <v>16.030648604386105</v>
       </c>
     </row>
     <row r="26">
@@ -889,9 +905,9 @@
       <c r="D26" s="17">
         <v>355.12130126454645</v>
       </c>
-      <c r="E26" s="18">
-        <f t="shared" si="1"/>
-        <v>23615.63756</v>
+      <c r="E26" s="20">
+        <f>D26 / VLOOKUP($C26,$A$12:$B$14,2,0)</f>
+        <v>5.340153883214583</v>
       </c>
     </row>
     <row r="27">
@@ -907,9 +923,9 @@
       <c r="D27" s="17">
         <v>66.389469606927</v>
       </c>
-      <c r="E27" s="18">
-        <f t="shared" si="1"/>
-        <v>66.38946961</v>
+      <c r="E27" s="20">
+        <f>D27 / VLOOKUP($C27,$A$12:$B$14,2,0)</f>
+        <v>66.389469606927</v>
       </c>
     </row>
     <row r="28">
@@ -925,9 +941,9 @@
       <c r="D28" s="17">
         <v>49.86602507596649</v>
       </c>
-      <c r="E28" s="18">
-        <f t="shared" si="1"/>
-        <v>54.78782444</v>
+      <c r="E28" s="20">
+        <f>D28 / VLOOKUP($C28,$A$12:$B$14,2,0)</f>
+        <v>45.386369731067546</v>
       </c>
     </row>
     <row r="29">
@@ -943,9 +959,9 @@
       <c r="D29" s="17">
         <v>8.412843931734049</v>
       </c>
-      <c r="E29" s="18">
-        <f t="shared" si="1"/>
-        <v>9.243195456</v>
+      <c r="E29" s="20">
+        <f>D29 / VLOOKUP($C29,$A$12:$B$14,2,0)</f>
+        <v>7.657086053956928</v>
       </c>
     </row>
     <row r="31">
@@ -967,8 +983,8 @@
         <v>14</v>
       </c>
       <c r="B33" s="19">
-        <f t="shared" ref="B33:B35" si="2">SUMIF($B$18:$B$29,$A33,$E$18:$E$29)</f>
-        <v>46781.92545</v>
+        <f>SUMIF($B$18:$B$29,$A33,$E$18:$E$29)</f>
+        <v>219.2916747963672</v>
       </c>
     </row>
     <row r="34">
@@ -976,8 +992,8 @@
         <v>16</v>
       </c>
       <c r="B34" s="19">
-        <f t="shared" si="2"/>
-        <v>99504.23148</v>
+        <f>SUMIF($B$18:$B$29,$A34,$E$18:$E$29)</f>
+        <v>88.8751372854022</v>
       </c>
     </row>
     <row r="35">
@@ -985,8 +1001,8 @@
         <v>21</v>
       </c>
       <c r="B35" s="19">
-        <f t="shared" si="2"/>
-        <v>95.47325107</v>
+        <f>SUMIF($B$18:$B$29,$A35,$E$18:$E$29)</f>
+        <v>79.0902781147642</v>
       </c>
     </row>
   </sheetData>
@@ -998,6 +1014,5 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A31:B31"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>